--- a/aerodynamic_properties/Seat_data.xlsx
+++ b/aerodynamic_properties/Seat_data.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="seat_ref" sheetId="1" r:id="rId1"/>
+    <sheet name="seat_flight" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Seat_1</t>
   </si>
@@ -68,13 +69,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -350,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,8 +402,8 @@
       <c r="B2">
         <v>131</v>
       </c>
-      <c r="C2">
-        <v>82</v>
+      <c r="C2" s="1">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -387,19 +413,19 @@
       <c r="B3">
         <v>131</v>
       </c>
-      <c r="C3">
-        <v>95</v>
+      <c r="C3" s="1">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="B4">
-        <v>214</v>
-      </c>
-      <c r="C4">
-        <v>84.5</v>
+        <v>170</v>
+      </c>
+      <c r="C4" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -409,19 +435,19 @@
       <c r="B5">
         <v>214</v>
       </c>
-      <c r="C5">
-        <v>50</v>
+      <c r="C5" s="1">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="B6">
-        <v>251</v>
-      </c>
-      <c r="C6">
-        <v>85</v>
+        <v>214</v>
+      </c>
+      <c r="C6" s="1">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -431,19 +457,19 @@
       <c r="B7">
         <v>251</v>
       </c>
-      <c r="C7">
-        <v>82</v>
+      <c r="C7" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="B8">
-        <v>288</v>
-      </c>
-      <c r="C8">
-        <v>95</v>
+        <v>251</v>
+      </c>
+      <c r="C8" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -451,35 +477,154 @@
         <v>288</v>
       </c>
       <c r="B9">
-        <v>150.5</v>
-      </c>
-      <c r="C9">
-        <v>95.5</v>
+        <v>288</v>
+      </c>
+      <c r="C9" s="1">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="B10">
-        <v>170</v>
-      </c>
-      <c r="C10">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>170</v>
-      </c>
-      <c r="B11">
-        <v>170</v>
-      </c>
-      <c r="C11">
-        <v>85</v>
+        <v>150.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>131</v>
+      </c>
+      <c r="B2">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>131</v>
+      </c>
+      <c r="B3">
+        <v>131</v>
+      </c>
+      <c r="C3" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>170</v>
+      </c>
+      <c r="B4">
+        <v>170</v>
+      </c>
+      <c r="C4" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>214</v>
+      </c>
+      <c r="B5">
+        <v>214</v>
+      </c>
+      <c r="C5" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>214</v>
+      </c>
+      <c r="B6">
+        <v>214</v>
+      </c>
+      <c r="C6" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>251</v>
+      </c>
+      <c r="B7">
+        <v>251</v>
+      </c>
+      <c r="C7" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>251</v>
+      </c>
+      <c r="B8">
+        <v>251</v>
+      </c>
+      <c r="C8" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>288</v>
+      </c>
+      <c r="B9">
+        <v>288</v>
+      </c>
+      <c r="C9" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>288</v>
+      </c>
+      <c r="B10">
+        <v>150.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C10">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(C2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>